--- a/src/main/resources/documentlibrary/README.xlsx
+++ b/src/main/resources/documentlibrary/README.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\github\designinstituteoasystem\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\github\DesignInstituteOASystem\src\main\resources\documentlibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE713DD-B6E7-41E6-8FCE-45DBB1B61C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABB895-8A23-471F-9C0A-A99DC660878F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计大纲" sheetId="2" r:id="rId1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>designinstituteoasystem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助设计表3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>designinstituteoasystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目架构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +297,14 @@
   </si>
   <si>
     <t>导航菜单名称等可修改，根据赋予的权限不同，执行不同的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignInstituteOASystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignInstituteOASystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,6 +445,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -453,9 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3762,7 +3762,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3775,13 +3775,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>"# "&amp;A4&amp;"."&amp;B4&amp;"  "</f>
@@ -3848,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3856,21 +3856,21 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3878,29 +3878,29 @@
         <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>"# "&amp;B10</f>
-        <v># designinstituteoasystem</v>
+        <v># DesignInstituteOASystem</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3916,23 +3916,23 @@
         <v>项目介绍</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C14" s="8" t="str">
         <f>"  &gt; "&amp;B14</f>
-        <v xml:space="preserve">  &gt; designinstituteoasystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</v>
+        <v xml:space="preserve">  &gt; DesignInstituteOASystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4767F23B-7D9D-4DC9-9534-EEDB9B8F4171}">
   <dimension ref="G12:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -3979,18 +3979,18 @@
   <sheetData>
     <row r="12" spans="7:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4446,8 +4446,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4476,7 +4476,7 @@
         <v>markdown格式</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
         <v>职员系统</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>"## "&amp;设计大纲!$A$6&amp;"."&amp;A8&amp;B8&amp;"  "&amp;CHAR(10)&amp;"  &gt; "&amp;C8</f>
@@ -4730,7 +4730,7 @@
         <v>合同系统</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>"## "&amp;设计大纲!$A$6&amp;"."&amp;A18&amp;B18&amp;"  "&amp;CHAR(10)&amp;"  &gt; "&amp;C18</f>
@@ -4918,8 +4918,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4930,7 +4930,7 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>设计大纲!C10</f>
-        <v># designinstituteoasystem</v>
+        <v># DesignInstituteOASystem</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>设计大纲!C14</f>
-        <v xml:space="preserve">  &gt; designinstituteoasystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</v>
+        <v xml:space="preserve">  &gt; DesignInstituteOASystem是笔者对OA领域既有经验的整合，笔者想试着打造一套包含流程控制、过程管理、知识管理、财务管理、项目管理、绩效管理、数据评测、制度管理的针对设计院团队的高效办公多终端解决方案。</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
